--- a/inputs/AddictO_Human_population_Defs.xlsx
+++ b/inputs/AddictO_Human_population_Defs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11640" yWindow="-13120" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" state="visible" r:id="rId1"/>
@@ -453,8 +453,8 @@
   <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -477,8 +477,8 @@
     <col width="37.1640625" customWidth="1" style="10" min="17" max="17"/>
     <col width="48.6640625" customWidth="1" style="10" min="18" max="18"/>
     <col width="24.6640625" customWidth="1" style="10" min="19" max="19"/>
-    <col width="9.1640625" customWidth="1" style="10" min="20" max="20"/>
-    <col width="9.1640625" customWidth="1" style="10" min="21" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="10" min="20" max="21"/>
+    <col width="9.1640625" customWidth="1" style="10" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="7">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="D44" s="10" t="inlineStr">
         <is>
-          <t>Infection in ecosystem [APOLLO_SV:</t>
+          <t>Infection in ecosystem</t>
         </is>
       </c>
       <c r="E44" s="10" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D54" s="10" t="inlineStr">
         <is>
-          <t>Epidemic [APOLLO_SV:0000298]</t>
+          <t>Epidemic</t>
         </is>
       </c>
       <c r="E54" s="10" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="D62" s="10" t="inlineStr">
         <is>
-          <t>Data item</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E62" s="10" t="inlineStr">
@@ -2658,9 +2658,14 @@
       <c r="R74" s="9" t="n"/>
     </row>
     <row r="75" ht="120" customHeight="1">
+      <c r="A75" s="10" t="inlineStr">
+        <is>
+          <t>BCIO:041000</t>
+        </is>
+      </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>Human population</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
@@ -2668,7 +2673,11 @@
           <t>An aggregate of human beings</t>
         </is>
       </c>
-      <c r="D75" s="9" t="n"/>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
       <c r="E75" s="9" t="n"/>
       <c r="F75" s="11" t="inlineStr">
         <is>
@@ -2701,6 +2710,11 @@
       <c r="R75" s="9" t="n"/>
     </row>
     <row r="76" ht="30" customHeight="1">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000525</t>
+        </is>
+      </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
           <t>Population attribute</t>
@@ -2711,7 +2725,11 @@
           <t>A dependent continuant (attribute) that is shared by all members of a population, or an attribute that characterises a population as a whole</t>
         </is>
       </c>
-      <c r="D76" s="9" t="n"/>
+      <c r="D76" s="9" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
       <c r="E76" s="9" t="n"/>
       <c r="F76" s="11" t="inlineStr">
         <is>
@@ -3053,7 +3071,7 @@
       </c>
       <c r="D86" s="10" t="inlineStr">
         <is>
-          <t>Data item [IAO:</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E86" s="10" t="inlineStr">
@@ -3669,8 +3687,8 @@
     <col width="50.5" customWidth="1" style="4" min="2" max="2"/>
     <col width="93" customWidth="1" style="4" min="3" max="3"/>
     <col width="45.1640625" customWidth="1" style="4" min="4" max="4"/>
-    <col width="9.1640625" customWidth="1" style="4" min="5" max="5"/>
-    <col width="9.1640625" customWidth="1" style="4" min="6" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="4" min="5" max="6"/>
+    <col width="9.1640625" customWidth="1" style="4" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customFormat="1" customHeight="1" s="5">
@@ -4041,8 +4059,8 @@
     <col width="25.5" customWidth="1" style="1" min="10" max="10"/>
     <col width="17.33203125" customWidth="1" style="1" min="11" max="11"/>
     <col width="18.33203125" customWidth="1" style="1" min="12" max="12"/>
-    <col width="9.1640625" customWidth="1" style="1" min="13" max="13"/>
-    <col width="9.1640625" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="1" min="13" max="14"/>
+    <col width="9.1640625" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="5">

--- a/inputs/AddictO_Human_population_Defs.xlsx
+++ b/inputs/AddictO_Human_population_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFDA6E4-289F-E542-8FC5-B3AD094AF5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13F15B1-35BD-5544-878A-367FB97D8014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="3680" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -43,34 +43,40 @@
     <t>Definition source</t>
   </si>
   <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>Cross reference</t>
+  </si>
+  <si>
     <t>Curator note</t>
   </si>
   <si>
-    <t>Synonyms</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
     <t>Examples of usage</t>
   </si>
   <si>
+    <t>E-CigO</t>
+  </si>
+  <si>
     <t>Fuzzy set</t>
   </si>
   <si>
-    <t>E-CigO</t>
+    <t>Why fuzzy</t>
+  </si>
+  <si>
+    <t>Curator</t>
   </si>
   <si>
     <t>Curation status</t>
   </si>
   <si>
-    <t>Why fuzzy</t>
-  </si>
-  <si>
-    <t>Cross reference</t>
-  </si>
-  <si>
-    <t>Cigarette smoking prevalence</t>
+    <t>To be reviewed by</t>
+  </si>
+  <si>
+    <t>cigarette smoking prevalence</t>
   </si>
   <si>
     <t>Human population</t>
@@ -79,442 +85,439 @@
     <t>Proposed</t>
   </si>
   <si>
-    <t>E-cigarette market</t>
-  </si>
-  <si>
-    <t>Mortality in a population</t>
-  </si>
-  <si>
-    <t>Mortality reduction in a population</t>
-  </si>
-  <si>
-    <t>Mortality risk</t>
-  </si>
-  <si>
-    <t>National trend</t>
-  </si>
-  <si>
-    <t>Population level e-cigarette use</t>
-  </si>
-  <si>
-    <t>Population-level gateway effect</t>
-  </si>
-  <si>
-    <t>Public health emergency</t>
-  </si>
-  <si>
-    <t>Risk reduction</t>
-  </si>
-  <si>
-    <t>Risk threshold</t>
-  </si>
-  <si>
-    <t>Smoking-related mortality</t>
-  </si>
-  <si>
-    <t>Social acceptability</t>
+    <t>e-cigarette market</t>
+  </si>
+  <si>
+    <t>mortality in a population</t>
+  </si>
+  <si>
+    <t>mortality reduction in a population</t>
+  </si>
+  <si>
+    <t>mortality risk</t>
+  </si>
+  <si>
+    <t>national trend</t>
+  </si>
+  <si>
+    <t>population level e-cigarette use</t>
+  </si>
+  <si>
+    <t>population-level gateway effect</t>
+  </si>
+  <si>
+    <t>public health emergency</t>
+  </si>
+  <si>
+    <t>risk reduction</t>
+  </si>
+  <si>
+    <t>risk threshold</t>
+  </si>
+  <si>
+    <t>smoking-related mortality</t>
+  </si>
+  <si>
+    <t>social acceptability</t>
   </si>
   <si>
     <t>The degree to which something is believed to be acceptable to members of a population.</t>
   </si>
   <si>
-    <t>Adolescent alcohol use prevalence</t>
-  </si>
-  <si>
-    <t>Adolescent substance use prevalence</t>
-  </si>
-  <si>
-    <t>Age trend</t>
+    <t>adolescent alcohol use prevalence</t>
+  </si>
+  <si>
+    <t>adolescent substance use prevalence</t>
+  </si>
+  <si>
+    <t>age trend</t>
+  </si>
+  <si>
+    <t>alcohol-related cancer risk in a population</t>
+  </si>
+  <si>
+    <t>alcohol-related harm in a population</t>
+  </si>
+  <si>
+    <t>alcohol-related harm trend</t>
+  </si>
+  <si>
+    <t>alcohol-related hospital admissions in a population</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000322</t>
+  </si>
+  <si>
+    <t>alcohol-related mortality</t>
+  </si>
+  <si>
+    <t>Mortality in a population in which the deaths in question are at least partly caused by the consumption of alcohol by people in that population.</t>
+  </si>
+  <si>
+    <t>mortality</t>
+  </si>
+  <si>
+    <t>Expressed in terms of number or proportion of deaths or population attributable fraction.</t>
+  </si>
+  <si>
+    <t>alcohol-related mortality rates in a population</t>
+  </si>
+  <si>
+    <t>alcohol-specific death rate</t>
+  </si>
+  <si>
+    <t>all cause mortality</t>
+  </si>
+  <si>
+    <t>all-cause mortality hazard product use</t>
+  </si>
+  <si>
+    <t>area disadvantage</t>
+  </si>
+  <si>
+    <t>availability of a substance in a population</t>
+  </si>
+  <si>
+    <t>birth cohort</t>
+  </si>
+  <si>
+    <t>clinical staff</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>cohort trend</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>community safety</t>
+  </si>
+  <si>
+    <t>community sample</t>
+  </si>
+  <si>
+    <t>cultural tradition</t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>cumulative incidence of fracture</t>
+  </si>
+  <si>
+    <t>cumulative incidence rate</t>
+  </si>
+  <si>
+    <t>disadvantaged group</t>
+  </si>
+  <si>
+    <t>diverging trend</t>
+  </si>
+  <si>
+    <t>drug-related mortality</t>
+  </si>
+  <si>
+    <t>The number of deaths in a population that would not have occurred were it not for the use of psychoactive drugs other than alcohol and tobacco.</t>
+  </si>
+  <si>
+    <t>APOLLO_SV:00000298</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>A process whose beginning is demarcated by accelerating infection acquisition by one or more host species of a particular pathogen in a particular location and whose end is demarcated by the time when the rate of infection acquisition becomes constant.</t>
+  </si>
+  <si>
+    <t>infection in ecosystem</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>An ointology of epidemiology was built but it has been deprecated https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3926306/</t>
+  </si>
+  <si>
+    <t>ethnic discrimination</t>
+  </si>
+  <si>
+    <t>gender convergence</t>
+  </si>
+  <si>
+    <t>general population</t>
+  </si>
+  <si>
+    <t>global burden of disease</t>
+  </si>
+  <si>
+    <t>hard-to-reach group</t>
+  </si>
+  <si>
+    <t>health community</t>
+  </si>
+  <si>
+    <t>hepatitis C incidence</t>
+  </si>
+  <si>
+    <t>heritability</t>
+  </si>
+  <si>
+    <t>HCV incidence</t>
+  </si>
+  <si>
+    <t>heroin overdose rate</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000323</t>
+  </si>
+  <si>
+    <t>Epidemic of HIV infection.</t>
+  </si>
+  <si>
+    <t>No definition found in Ontobee</t>
+  </si>
+  <si>
+    <t>marginalised group</t>
+  </si>
+  <si>
+    <t>moral social world</t>
+  </si>
+  <si>
+    <t>moral world</t>
+  </si>
+  <si>
+    <t>morality discourse</t>
+  </si>
+  <si>
+    <t>morbidity reduction in a population</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000324</t>
+  </si>
+  <si>
+    <t>A population attribute that reflects the number of deaths within a population within a time frame.</t>
+  </si>
+  <si>
+    <t>population attribute</t>
+  </si>
+  <si>
+    <t>Specifically dependent continuant</t>
+  </si>
+  <si>
+    <t>OBCS:0000150</t>
+  </si>
+  <si>
+    <t>mortality ratio</t>
+  </si>
+  <si>
+    <t>A data item which is the ratio of observed deaths in the study group to expected deaths in the general population.</t>
+  </si>
+  <si>
+    <t>data item</t>
+  </si>
+  <si>
+    <t>Generically dependent continuant</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>normalisation</t>
+  </si>
+  <si>
+    <t>number of events averted per year in a population</t>
+  </si>
+  <si>
+    <t>number of opioid overdoses per year</t>
+  </si>
+  <si>
+    <t>number of patients admitted as an inpatient</t>
+  </si>
+  <si>
+    <t>number of patients entering treatment</t>
+  </si>
+  <si>
+    <t>opioid overdose epidemic</t>
+  </si>
+  <si>
+    <t>opioid overdose mortality</t>
+  </si>
+  <si>
+    <t>opioid use epidemic</t>
+  </si>
+  <si>
+    <t>opioid-related morbidity</t>
+  </si>
+  <si>
+    <t>opioid-related mortality</t>
+  </si>
+  <si>
+    <t>overdose probability</t>
+  </si>
+  <si>
+    <t>BCIO:041000</t>
+  </si>
+  <si>
+    <t>human population</t>
+  </si>
+  <si>
+    <t>An aggregate of human beings</t>
+  </si>
+  <si>
+    <t>object aggregate</t>
+  </si>
+  <si>
+    <t>Population in OBI is defined as "A population is a collection of individuals from the same taxonomic class living, counted or sampled at a particular site or in a particular area". See also PICO ontology</t>
+  </si>
+  <si>
+    <t>By the proposed definition we should update the name to 'human population'. Note that the BCIO 'population' ontology only defines population attributes rather than populations themselves. BCI population defined as "That part of a Behaviour change intervention context that consists of the aggregate of people whose behaviour an intervention is intended to change. "</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000525</t>
+  </si>
+  <si>
+    <t>A dependent continuant (attribute) that is shared by all members of a population, or an attribute that characterises a population as a whole</t>
+  </si>
+  <si>
+    <t>specifically dependent continuant</t>
+  </si>
+  <si>
+    <t>This is what the root of the BCIO population ontology is in actual effect</t>
+  </si>
+  <si>
+    <t>population drinking trend</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000325</t>
+  </si>
+  <si>
+    <t>population health</t>
+  </si>
+  <si>
+    <t>The health of a population</t>
+  </si>
+  <si>
+    <t>pravelance</t>
+  </si>
+  <si>
+    <t>premature mortality</t>
+  </si>
+  <si>
+    <t>The number of premature deaths that occur in a population in a given timeframe.</t>
+  </si>
+  <si>
+    <t>prevalence</t>
+  </si>
+  <si>
+    <t>public health benefit</t>
+  </si>
+  <si>
+    <t>public health community</t>
+  </si>
+  <si>
+    <t>public opinion</t>
+  </si>
+  <si>
+    <t>public stance</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000326</t>
+  </si>
+  <si>
+    <t>quality-adjusted life year</t>
+  </si>
+  <si>
+    <t>A data item that is the estimated number of years that a person can expect to live, adjusted downwards according to how far the assessed quality of life of that person is less than what is judged to be optimal.</t>
+  </si>
+  <si>
+    <t>QALY</t>
+  </si>
+  <si>
+    <t>No appropriate ontological definition found. Definition based on https://en.wikipedia.org/wiki/Quality_of_life</t>
+  </si>
+  <si>
+    <t>The issue of who does the judging would need to be specified and the basis for the judgement.</t>
+  </si>
+  <si>
+    <t>risk of abuse</t>
+  </si>
+  <si>
+    <t>risk of diversion</t>
+  </si>
+  <si>
+    <t>secular trend</t>
+  </si>
+  <si>
+    <t>sexual minority subgroup</t>
+  </si>
+  <si>
+    <t>social connectedness</t>
+  </si>
+  <si>
+    <t>An attribute of a population involving the degree to which people in that population communicate with each other.</t>
+  </si>
+  <si>
+    <t>social context</t>
+  </si>
+  <si>
+    <t>social norm</t>
+  </si>
+  <si>
+    <t>social responsibility</t>
+  </si>
+  <si>
+    <t>societal discourse</t>
+  </si>
+  <si>
+    <t>societal-level</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000327</t>
+  </si>
+  <si>
+    <t>supply-induced treatment demand</t>
+  </si>
+  <si>
+    <t>Treatment demand that is influenced by the availability of the treatment to to population.</t>
+  </si>
+  <si>
+    <t>treatment demand</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000328</t>
+  </si>
+  <si>
+    <t>A quality of a population that involves the number of people in the population who seek a treatment.</t>
+  </si>
+  <si>
+    <t>univariate heritability</t>
+  </si>
+  <si>
+    <t>unwritten rule</t>
+  </si>
+  <si>
+    <t>vulnerable group</t>
+  </si>
+  <si>
+    <t>women's role</t>
   </si>
   <si>
     <t>AIDS Care Cohort</t>
   </si>
   <si>
-    <t>Alcohol-related cancer risk in a population</t>
-  </si>
-  <si>
-    <t>Alcohol-related harm in a population</t>
-  </si>
-  <si>
-    <t>Alcohol-related harm trend</t>
-  </si>
-  <si>
-    <t>Alcohol-related hospital admissions in a population</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000322</t>
-  </si>
-  <si>
-    <t>Alcohol-related mortality</t>
-  </si>
-  <si>
-    <t>Mortality in a population in which the deaths in question are at least partly caused by the consumption of alcohol by people in that population.</t>
-  </si>
-  <si>
-    <t>Mortality</t>
-  </si>
-  <si>
-    <t>Expressed in terms of number or proportion of deaths or population attributable fraction.</t>
-  </si>
-  <si>
-    <t>Alcohol-related mortality rates in a population</t>
-  </si>
-  <si>
-    <t>Alcohol-specific death rate</t>
-  </si>
-  <si>
-    <t>All cause mortality</t>
-  </si>
-  <si>
-    <t>All-cause mortality hazard product use</t>
-  </si>
-  <si>
-    <t>Area disadvantage</t>
-  </si>
-  <si>
-    <t>Availability of a substance in a population</t>
-  </si>
-  <si>
-    <t>Birth cohort</t>
-  </si>
-  <si>
-    <t>Clinical staff</t>
-  </si>
-  <si>
-    <t>Cohort</t>
-  </si>
-  <si>
-    <t>Cohort trend</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Community safety</t>
-  </si>
-  <si>
-    <t>Community sample</t>
-  </si>
-  <si>
-    <t>Cultural tradition</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Cumulative incidence of fracture</t>
-  </si>
-  <si>
-    <t>Cumulative incidence rate</t>
-  </si>
-  <si>
-    <t>Disadvantaged group</t>
-  </si>
-  <si>
-    <t>Diverging trend</t>
-  </si>
-  <si>
-    <t>Drug-related mortality</t>
-  </si>
-  <si>
-    <t>The number of deaths in a population that would not have occurred were it not for the use of psychoactive drugs other than alcohol and tobacco.</t>
-  </si>
-  <si>
-    <t>APOLLO_SV:00000298</t>
-  </si>
-  <si>
-    <t>Epidemic</t>
-  </si>
-  <si>
-    <t>A process whose beginning is demarcated by accelerating infection acquisition by one or more host species of a particular pathogen in a particular location and whose end is demarcated by the time when the rate of infection acquisition becomes constant.</t>
-  </si>
-  <si>
-    <t>Infection in ecosystem</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>An ointology of epidemiology was built but it has been deprecated https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3926306/</t>
-  </si>
-  <si>
-    <t>Ethnic discrimination</t>
-  </si>
-  <si>
-    <t>Gender convergence</t>
-  </si>
-  <si>
-    <t>General population</t>
-  </si>
-  <si>
-    <t>Global burden of disease</t>
-  </si>
-  <si>
-    <t>Hard-to-reach group</t>
-  </si>
-  <si>
-    <t>Health community</t>
-  </si>
-  <si>
-    <t>Hepatitis C incidence</t>
-  </si>
-  <si>
-    <t>Heritability</t>
-  </si>
-  <si>
-    <t>HCV incidence</t>
-  </si>
-  <si>
-    <t>Heroin overdose rate</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000323</t>
-  </si>
-  <si>
     <t>HIV epidemic</t>
   </si>
   <si>
-    <t>Epidemic of HIV infection.</t>
-  </si>
-  <si>
-    <t>No definition found in Ontobee</t>
-  </si>
-  <si>
     <t>HIV infected population</t>
   </si>
   <si>
-    <t>Marginalised group</t>
-  </si>
-  <si>
-    <t>Moral social world</t>
-  </si>
-  <si>
-    <t>Moral world</t>
-  </si>
-  <si>
-    <t>Morality discourse</t>
-  </si>
-  <si>
-    <t>Morbidity reduction in a population</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000324</t>
-  </si>
-  <si>
-    <t>A population attribute that reflects the number of deaths within a population within a time frame.</t>
-  </si>
-  <si>
-    <t>Population attribute</t>
-  </si>
-  <si>
-    <t>Specifically dependent continuant</t>
-  </si>
-  <si>
-    <t>OBCS:0000150</t>
-  </si>
-  <si>
-    <t>Mortality ratio</t>
-  </si>
-  <si>
-    <t>A data item which is the ratio of observed deaths in the study group to expected deaths in the general population.</t>
-  </si>
-  <si>
-    <t>data item</t>
-  </si>
-  <si>
-    <t>Generically dependent continuant</t>
-  </si>
-  <si>
-    <t>Norm</t>
-  </si>
-  <si>
-    <t>Normalisation</t>
-  </si>
-  <si>
-    <t>Number of events averted per year in a population</t>
-  </si>
-  <si>
-    <t>Number of opioid overdoses per year</t>
-  </si>
-  <si>
-    <t>Number of patients admitted as an inpatient</t>
-  </si>
-  <si>
-    <t>Number of patients entering treatment</t>
-  </si>
-  <si>
-    <t>Opioid overdose epidemic</t>
-  </si>
-  <si>
-    <t>Opioid overdose mortality</t>
-  </si>
-  <si>
-    <t>Opioid use epidemic</t>
-  </si>
-  <si>
-    <t>Opioid-related morbidity</t>
-  </si>
-  <si>
-    <t>Opioid-related mortality</t>
-  </si>
-  <si>
-    <t>Overdose probability</t>
-  </si>
-  <si>
-    <t>BCIO:041000</t>
-  </si>
-  <si>
-    <t>An aggregate of human beings</t>
-  </si>
-  <si>
-    <t>object aggregate</t>
-  </si>
-  <si>
-    <t>Population in OBI is defined as "A population is a collection of individuals from the same taxonomic class living, counted or sampled at a particular site or in a particular area". See also PICO ontology</t>
-  </si>
-  <si>
-    <t>By the proposed definition we should update the name to 'human population'. Note that the BCIO 'population' ontology only defines population attributes rather than populations themselves. BCI population defined as "That part of a Behaviour change intervention context that consists of the aggregate of people whose behaviour an intervention is intended to change. "</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000525</t>
-  </si>
-  <si>
-    <t>A dependent continuant (attribute) that is shared by all members of a population, or an attribute that characterises a population as a whole</t>
-  </si>
-  <si>
-    <t>specifically dependent continuant</t>
-  </si>
-  <si>
-    <t>This is what the root of the BCIO population ontology is in actual effect</t>
-  </si>
-  <si>
-    <t>Population drinking trend</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000325</t>
-  </si>
-  <si>
-    <t>Population health</t>
-  </si>
-  <si>
-    <t>The health of a population</t>
-  </si>
-  <si>
-    <t>Pravelance</t>
-  </si>
-  <si>
-    <t>Premature mortality</t>
-  </si>
-  <si>
-    <t>The number of premature deaths that occur in a population in a given timeframe.</t>
-  </si>
-  <si>
-    <t>Prevalence</t>
-  </si>
-  <si>
-    <t>Public health benefit</t>
-  </si>
-  <si>
-    <t>Public health community</t>
-  </si>
-  <si>
-    <t>Public opinion</t>
-  </si>
-  <si>
-    <t>Public stance</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000326</t>
-  </si>
-  <si>
-    <t>Quality-adjusted life year</t>
-  </si>
-  <si>
-    <t>A data item that is the estimated number of years that a person can expect to live, adjusted downwards according to how far the assessed quality of life of that person is less than what is judged to be optimal.</t>
-  </si>
-  <si>
-    <t>No appropriate ontological definition found. Definition based on https://en.wikipedia.org/wiki/Quality_of_life</t>
-  </si>
-  <si>
-    <t>QALY</t>
-  </si>
-  <si>
-    <t>The issue of who does the judging would need to be specified and the basis for the judgement.</t>
-  </si>
-  <si>
-    <t>Risk of abuse</t>
-  </si>
-  <si>
-    <t>Risk of diversion</t>
-  </si>
-  <si>
-    <t>Secular trend</t>
-  </si>
-  <si>
-    <t>Sexual minority subgroup</t>
-  </si>
-  <si>
-    <t>Social connectedness</t>
-  </si>
-  <si>
-    <t>An attribute of a population involving the degree to which people in that population communicate with each other.</t>
-  </si>
-  <si>
-    <t>Social context</t>
-  </si>
-  <si>
-    <t>Social norm</t>
-  </si>
-  <si>
-    <t>Social responsibility</t>
-  </si>
-  <si>
-    <t>Societal discourse</t>
-  </si>
-  <si>
-    <t>Societal-level</t>
-  </si>
-  <si>
     <t>Socio-Economic Group</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000327</t>
-  </si>
-  <si>
-    <t>Supply-induced treatment demand</t>
-  </si>
-  <si>
-    <t>Treatment demand that is influenced by the availability of the treatment to to population.</t>
-  </si>
-  <si>
-    <t>Treatment demand</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000328</t>
-  </si>
-  <si>
-    <t>A quality of a population that involves the number of people in the population who seek a treatment.</t>
-  </si>
-  <si>
-    <t>Univariate heritability</t>
-  </si>
-  <si>
-    <t>Unwritten rule</t>
-  </si>
-  <si>
-    <t>Vulnerable group</t>
-  </si>
-  <si>
-    <t>Women's role</t>
-  </si>
-  <si>
-    <t>Curator</t>
-  </si>
-  <si>
-    <t>To be reviewed by</t>
   </si>
 </sst>
 </file>
@@ -876,9 +879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -901,8 +904,8 @@
     <col min="16" max="16" width="9.1640625" style="4" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="4" customWidth="1"/>
     <col min="18" max="18" width="24.6640625" style="4" customWidth="1"/>
-    <col min="19" max="21" width="9.1640625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="4"/>
+    <col min="19" max="22" width="9.1640625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -928,48 +931,48 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -982,18 +985,18 @@
       <c r="N2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1006,18 +1009,18 @@
       <c r="N3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1030,18 +1033,18 @@
       <c r="N4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1054,18 +1057,18 @@
       <c r="N5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1078,18 +1081,18 @@
       <c r="N6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1102,18 +1105,18 @@
       <c r="N7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1126,18 +1129,18 @@
       <c r="N8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1150,18 +1153,18 @@
       <c r="N9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1175,18 +1178,18 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1199,18 +1202,18 @@
       <c r="N11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1223,18 +1226,18 @@
       <c r="N12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1247,20 +1250,20 @@
       <c r="N13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1274,125 +1277,125 @@
       <c r="N14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I15" s="6"/>
       <c r="Q15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4"/>
       <c r="Q16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I17" s="6"/>
       <c r="Q17" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O18" s="4"/>
       <c r="Q18" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I21" s="4"/>
       <c r="Q21" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -1403,138 +1406,138 @@
     </row>
     <row r="24" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R27" s="4"/>
     </row>
     <row r="28" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R28" s="4"/>
     </row>
     <row r="29" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R29" s="4"/>
     </row>
     <row r="30" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R31" s="4"/>
     </row>
     <row r="32" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R32" s="4"/>
     </row>
     <row r="33" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R33" s="4"/>
     </row>
     <row r="34" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -1547,18 +1550,18 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1571,18 +1574,18 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1595,18 +1598,18 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1619,18 +1622,18 @@
       <c r="O37" s="5"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1643,18 +1646,18 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1667,18 +1670,18 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1691,18 +1694,18 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -1715,18 +1718,18 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -1739,20 +1742,20 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -1765,44 +1768,44 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O44" s="3"/>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -1815,18 +1818,18 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -1839,18 +1842,18 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -1863,18 +1866,18 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -1887,18 +1890,18 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -1911,18 +1914,18 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -1935,18 +1938,18 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -1959,22 +1962,22 @@
       <c r="O51" s="5"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -1985,18 +1988,18 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2009,27 +2012,27 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="4" t="s">
@@ -2040,13 +2043,13 @@
     </row>
     <row r="55" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -2059,18 +2062,18 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -2083,18 +2086,18 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2107,18 +2110,18 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2131,18 +2134,18 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -2155,18 +2158,18 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2179,27 +2182,27 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="F61" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I61" s="3"/>
       <c r="O61" s="3"/>
@@ -2207,22 +2210,22 @@
     </row>
     <row r="62" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="F62" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I62" s="3"/>
       <c r="O62" s="3"/>
@@ -2230,13 +2233,13 @@
     </row>
     <row r="63" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2249,18 +2252,18 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -2273,18 +2276,18 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -2297,18 +2300,18 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -2321,18 +2324,18 @@
       <c r="O66" s="5"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -2345,18 +2348,18 @@
       <c r="O67" s="5"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2369,18 +2372,18 @@
       <c r="O68" s="5"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -2393,18 +2396,18 @@
       <c r="O69" s="5"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -2417,18 +2420,18 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -2441,18 +2444,18 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -2465,18 +2468,18 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -2489,18 +2492,18 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -2513,15 +2516,15 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>114</v>
@@ -2531,7 +2534,7 @@
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>116</v>
@@ -2548,7 +2551,7 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2556,7 +2559,7 @@
         <v>118</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>119</v>
@@ -2566,7 +2569,7 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -2581,7 +2584,7 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2592,7 +2595,7 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -2605,7 +2608,7 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2619,11 +2622,11 @@
         <v>125</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -2636,7 +2639,7 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2647,7 +2650,7 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -2660,7 +2663,7 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2673,7 +2676,7 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -2686,7 +2689,7 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2697,7 +2700,7 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -2710,7 +2713,7 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2721,7 +2724,7 @@
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -2734,7 +2737,7 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2745,7 +2748,7 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -2758,7 +2761,7 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2769,7 +2772,7 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -2782,7 +2785,7 @@
       <c r="O84" s="5"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2793,7 +2796,7 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -2806,7 +2809,7 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2820,19 +2823,19 @@
         <v>136</v>
       </c>
       <c r="D86" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="F86" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>139</v>
@@ -2847,7 +2850,7 @@
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -2860,7 +2863,7 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2871,7 +2874,7 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -2884,7 +2887,7 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2895,7 +2898,7 @@
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -2908,7 +2911,7 @@
       <c r="O89" s="5"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2919,7 +2922,7 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -2932,7 +2935,7 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2945,7 +2948,7 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -2958,7 +2961,7 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2969,7 +2972,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -2982,7 +2985,7 @@
       <c r="O92" s="5"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2993,7 +2996,7 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -3006,7 +3009,7 @@
       <c r="O93" s="5"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3017,7 +3020,7 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -3030,7 +3033,7 @@
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3041,7 +3044,7 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -3054,7 +3057,7 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3065,7 +3068,7 @@
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -3078,18 +3081,18 @@
       <c r="O96" s="5"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -3102,60 +3105,60 @@
       <c r="O97" s="5"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="F98" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R98" s="3"/>
     </row>
     <row r="99" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="D99" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="F99" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R99" s="3"/>
     </row>
     <row r="100" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -3168,18 +3171,18 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -3192,18 +3195,18 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
       <c r="Q101" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -3216,18 +3219,18 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -3240,7 +3243,7 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3249,7 +3252,7 @@
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3262,7 +3265,7 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/AddictO_Human_population_Defs.xlsx
+++ b/inputs/AddictO_Human_population_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13F15B1-35BD-5544-878A-367FB97D8014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE8A0F9-2A62-4F46-B756-BB588DAD9360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="3680" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -881,7 +881,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <selection pane="bottomLeft" activeCell="Q87" sqref="Q87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1401,7 +1401,9 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1795,6 +1797,9 @@
         <v>72</v>
       </c>
       <c r="O44" s="3"/>
+      <c r="Q44" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2039,6 +2044,9 @@
         <v>85</v>
       </c>
       <c r="O54" s="3"/>
+      <c r="Q54" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2206,6 +2214,9 @@
       </c>
       <c r="I61" s="3"/>
       <c r="O61" s="3"/>
+      <c r="Q61" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2229,6 +2240,9 @@
       </c>
       <c r="I62" s="3"/>
       <c r="O62" s="3"/>
+      <c r="Q62" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2840,6 +2854,9 @@
       <c r="K86" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="Q86" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="R86" s="3"/>
     </row>
     <row r="87" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3127,6 +3144,9 @@
       <c r="F98" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="Q98" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="R98" s="3"/>
     </row>
     <row r="99" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3147,6 +3167,9 @@
       </c>
       <c r="F99" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="R99" s="3"/>
     </row>

--- a/inputs/AddictO_Human_population_Defs.xlsx
+++ b/inputs/AddictO_Human_population_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE8A0F9-2A62-4F46-B756-BB588DAD9360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02D30D3-CD2A-8641-A3F7-CE284EC2740E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="3680" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="167">
   <si>
     <t>ID</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>Socio-Economic Group</t>
+  </si>
+  <si>
+    <t>Reviewer query</t>
   </si>
 </sst>
 </file>
@@ -877,11 +880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q87" sqref="Q87"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -904,11 +907,12 @@
     <col min="16" max="16" width="9.1640625" style="4" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="4" customWidth="1"/>
     <col min="18" max="18" width="24.6640625" style="4" customWidth="1"/>
-    <col min="19" max="22" width="9.1640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" style="4" customWidth="1"/>
+    <col min="20" max="22" width="9.1640625" style="4" customWidth="1"/>
     <col min="23" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,8 +967,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
@@ -988,7 +995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1012,7 +1019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1036,7 +1043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1084,7 +1091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
@@ -1108,7 +1115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1132,7 +1139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1156,7 +1163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
@@ -1181,7 +1188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -1205,7 +1212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
@@ -1229,7 +1236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1253,7 +1260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
@@ -1280,7 +1287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1292,7 +1299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>35</v>
       </c>

--- a/inputs/AddictO_Human_population_Defs.xlsx
+++ b/inputs/AddictO_Human_population_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>AIDS Care Cohort</t>
+        </is>
+      </c>
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
@@ -546,11 +550,15 @@
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="inlineStr"/>
@@ -563,15 +571,31 @@
       <c r="S2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000323</t>
+        </is>
+      </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>AIDS Care Cohort</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
+          <t>HIV epidemic</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Epidemic of HIV infection.</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>epidemic</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
           <t>Human population</t>
@@ -580,14 +604,22 @@
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="inlineStr"/>
       <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>No definition found in Ontobee</t>
+        </is>
+      </c>
       <c r="K3" s="2" t="inlineStr"/>
       <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr"/>
@@ -600,31 +632,15 @@
       <c r="S3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000323</t>
-        </is>
-      </c>
+      <c r="A4" s="2" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>HIV epidemic</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Epidemic of HIV infection.</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>epidemic</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>HIV infected population</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr">
         <is>
           <t>Human population</t>
@@ -633,18 +649,18 @@
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr"/>
       <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>No definition found in Ontobee</t>
-        </is>
-      </c>
+      <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr"/>
@@ -660,7 +676,7 @@
       <c r="A5" s="2" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>HIV infected population</t>
+          <t>Socio-Economic Group</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
@@ -677,11 +693,15 @@
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr"/>
@@ -697,7 +717,7 @@
       <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Socio-Economic Group</t>
+          <t>adolescent alcohol use prevalence</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
@@ -714,11 +734,15 @@
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="inlineStr"/>
       <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0</v>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr"/>
@@ -734,7 +758,7 @@
       <c r="A7" s="2" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>adolescent alcohol use prevalence</t>
+          <t>adolescent substance use prevalence</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -751,11 +775,15 @@
       <c r="J7" s="2" t="inlineStr"/>
       <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr"/>
@@ -771,7 +799,7 @@
       <c r="A8" s="2" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>adolescent substance use prevalence</t>
+          <t>age trend</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -788,11 +816,15 @@
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr"/>
@@ -808,7 +840,7 @@
       <c r="A9" s="2" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>age trend</t>
+          <t>alcohol-related cancer risk in a population</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -825,11 +857,15 @@
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr"/>
       <c r="P9" s="2" t="inlineStr"/>
@@ -845,7 +881,7 @@
       <c r="A10" s="2" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>alcohol-related cancer risk in a population</t>
+          <t>alcohol-related harm in a population</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
@@ -862,11 +898,15 @@
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr"/>
       <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0</v>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr"/>
@@ -882,7 +922,7 @@
       <c r="A11" s="2" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>alcohol-related harm in a population</t>
+          <t>alcohol-related harm trend</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -899,11 +939,15 @@
       <c r="J11" s="2" t="inlineStr"/>
       <c r="K11" s="2" t="inlineStr"/>
       <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0</v>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr"/>
@@ -919,7 +963,7 @@
       <c r="A12" s="2" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>alcohol-related harm trend</t>
+          <t>alcohol-related hospital admissions in a population</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
@@ -936,11 +980,15 @@
       <c r="J12" s="2" t="inlineStr"/>
       <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>0</v>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr"/>
@@ -953,14 +1001,26 @@
       <c r="S12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr"/>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000322</t>
+        </is>
+      </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>alcohol-related hospital admissions in a population</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
+          <t>alcohol-related mortality</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Mortality in a population in which the deaths in question are at least partly caused by the consumption of alcohol by people in that population.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr">
         <is>
@@ -971,13 +1031,21 @@
       <c r="H13" s="2" t="inlineStr"/>
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Expressed in terms of number or proportion of deaths or population attributable fraction.</t>
+        </is>
+      </c>
       <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>0</v>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="inlineStr"/>
@@ -990,26 +1058,14 @@
       <c r="S13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000322</t>
-        </is>
-      </c>
+      <c r="A14" s="2" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>alcohol-related mortality</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Mortality in a population in which the deaths in question are at least partly caused by the consumption of alcohol by people in that population.</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>mortality</t>
-        </is>
-      </c>
+          <t>alcohol-related mortality rates in a population</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr">
         <is>
@@ -1020,17 +1076,17 @@
       <c r="H14" s="2" t="inlineStr"/>
       <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>Expressed in terms of number or proportion of deaths or population attributable fraction.</t>
-        </is>
-      </c>
+      <c r="K14" s="2" t="inlineStr"/>
       <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>0</v>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr"/>
       <c r="P14" s="2" t="inlineStr"/>
@@ -1046,7 +1102,7 @@
       <c r="A15" s="2" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>alcohol-related mortality rates in a population</t>
+          <t>alcohol-specific death rate</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -1063,11 +1119,15 @@
       <c r="J15" s="2" t="inlineStr"/>
       <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>0</v>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr"/>
       <c r="P15" s="2" t="inlineStr"/>
@@ -1083,7 +1143,7 @@
       <c r="A16" s="2" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>alcohol-specific death rate</t>
+          <t>all cause mortality</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -1100,11 +1160,15 @@
       <c r="J16" s="2" t="inlineStr"/>
       <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>0</v>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr"/>
       <c r="P16" s="2" t="inlineStr"/>
@@ -1120,7 +1184,7 @@
       <c r="A17" s="2" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>all cause mortality</t>
+          <t>all-cause mortality hazard product use</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
@@ -1137,11 +1201,15 @@
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>0</v>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="inlineStr"/>
@@ -1157,7 +1225,7 @@
       <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>all-cause mortality hazard product use</t>
+          <t>area disadvantage</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
@@ -1174,11 +1242,15 @@
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>0</v>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr"/>
@@ -1194,7 +1266,7 @@
       <c r="A19" s="2" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>area disadvantage</t>
+          <t>availability of a substance in a population</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
@@ -1211,11 +1283,15 @@
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>0</v>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr"/>
@@ -1231,7 +1307,7 @@
       <c r="A20" s="2" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>availability of a substance in a population</t>
+          <t>birth cohort</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
@@ -1248,11 +1324,15 @@
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>0</v>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr"/>
@@ -1268,7 +1348,7 @@
       <c r="A21" s="2" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>birth cohort</t>
+          <t>cigarette smoking prevalence</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
@@ -1286,10 +1366,12 @@
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr"/>
       <c r="M21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="inlineStr"/>
@@ -1305,7 +1387,7 @@
       <c r="A22" s="2" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>cigarette smoking prevalence</t>
+          <t>clinical staff</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
@@ -1322,11 +1404,15 @@
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>0</v>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr"/>
       <c r="P22" s="2" t="inlineStr"/>
@@ -1342,7 +1428,7 @@
       <c r="A23" s="2" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>clinical staff</t>
+          <t>cohort</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
@@ -1359,11 +1445,15 @@
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>0</v>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr"/>
       <c r="P23" s="2" t="inlineStr"/>
@@ -1379,7 +1469,7 @@
       <c r="A24" s="2" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>cohort</t>
+          <t>cohort trend</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
@@ -1396,11 +1486,15 @@
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>0</v>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr"/>
       <c r="P24" s="2" t="inlineStr"/>
@@ -1416,7 +1510,7 @@
       <c r="A25" s="2" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>cohort trend</t>
+          <t>community</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -1433,11 +1527,15 @@
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>0</v>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr"/>
       <c r="P25" s="2" t="inlineStr"/>
@@ -1453,7 +1551,7 @@
       <c r="A26" s="2" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>community safety</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
@@ -1470,11 +1568,15 @@
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>0</v>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr"/>
@@ -1490,7 +1592,7 @@
       <c r="A27" s="2" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>community safety</t>
+          <t>community sample</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
@@ -1507,11 +1609,15 @@
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>0</v>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr"/>
       <c r="P27" s="2" t="inlineStr"/>
@@ -1527,7 +1633,7 @@
       <c r="A28" s="2" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>community sample</t>
+          <t>cultural tradition</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -1544,11 +1650,15 @@
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>0</v>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr"/>
       <c r="P28" s="2" t="inlineStr"/>
@@ -1564,7 +1674,7 @@
       <c r="A29" s="2" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>cultural tradition</t>
+          <t>culture</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
@@ -1581,11 +1691,15 @@
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>0</v>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr"/>
@@ -1601,7 +1715,7 @@
       <c r="A30" s="2" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>culture</t>
+          <t>cumulative incidence of fracture</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -1618,11 +1732,15 @@
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>0</v>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O30" s="2" t="inlineStr"/>
       <c r="P30" s="2" t="inlineStr"/>
@@ -1638,7 +1756,7 @@
       <c r="A31" s="2" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>cumulative incidence of fracture</t>
+          <t>cumulative incidence rate</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
@@ -1655,11 +1773,15 @@
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>0</v>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O31" s="2" t="inlineStr"/>
       <c r="P31" s="2" t="inlineStr"/>
@@ -1675,7 +1797,7 @@
       <c r="A32" s="2" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>cumulative incidence rate</t>
+          <t>disadvantaged group</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
@@ -1692,11 +1814,15 @@
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>0</v>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr"/>
@@ -1712,7 +1838,7 @@
       <c r="A33" s="2" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>disadvantaged group</t>
+          <t>diverging trend</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
@@ -1729,11 +1855,15 @@
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>0</v>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr"/>
@@ -1749,10 +1879,14 @@
       <c r="A34" s="2" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>diverging trend</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr"/>
+          <t>drug-related mortality</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>The number of deaths in a population that would not have occurred were it not for the use of psychoactive drugs other than alcohol and tobacco.</t>
+        </is>
+      </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr">
@@ -1766,11 +1900,15 @@
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>0</v>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="inlineStr"/>
@@ -1786,14 +1924,10 @@
       <c r="A35" s="2" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>drug-related mortality</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>The number of deaths in a population that would not have occurred were it not for the use of psychoactive drugs other than alcohol and tobacco.</t>
-        </is>
-      </c>
+          <t>e-cigarette market</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr"/>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr">
@@ -1808,10 +1942,12 @@
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O35" s="2" t="inlineStr"/>
       <c r="P35" s="2" t="inlineStr"/>
@@ -1824,104 +1960,112 @@
       <c r="S35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr"/>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>e-cigarette market</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>APOLLO_SV:00000298</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>epidemic</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A process whose beginning is demarcated by accelerating infection acquisition by one or more host species of a particular pathogen in a particular location and whose end is demarcated by the time when the rate of infection acquisition becomes constant.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>infection in ecosystem</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Human population</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>An ointology of epidemiology was built but it has been deprecated https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3926306/</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>APOLLO_SV:00000298</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>epidemic</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A process whose beginning is demarcated by accelerating infection acquisition by one or more host species of a particular pathogen in a particular location and whose end is demarcated by the time when the rate of infection acquisition becomes constant.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>infection in ecosystem</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>An ointology of epidemiology was built but it has been deprecated https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3926306/</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="A37" s="2" t="inlineStr"/>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>ethnic discrimination</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Human population</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="inlineStr"/>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr"/>
+      <c r="S37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>ethnic discrimination</t>
+          <t>gender convergence</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -1938,11 +2082,15 @@
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>0</v>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="inlineStr"/>
@@ -1958,7 +2106,7 @@
       <c r="A39" s="2" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>gender convergence</t>
+          <t>general population</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -1975,11 +2123,15 @@
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>0</v>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr"/>
@@ -1995,7 +2147,7 @@
       <c r="A40" s="2" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>general population</t>
+          <t>global burden of disease</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
@@ -2012,11 +2164,15 @@
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>0</v>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="inlineStr"/>
@@ -2032,7 +2188,7 @@
       <c r="A41" s="2" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>global burden of disease</t>
+          <t>hard-to-reach group</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
@@ -2049,11 +2205,15 @@
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>0</v>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr"/>
@@ -2069,7 +2229,7 @@
       <c r="A42" s="2" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>hard-to-reach group</t>
+          <t>health community</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
@@ -2086,11 +2246,15 @@
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>0</v>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr"/>
@@ -2106,7 +2270,7 @@
       <c r="A43" s="2" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>health community</t>
+          <t>hepatitis C incidence</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
@@ -2123,11 +2287,15 @@
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>0</v>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr"/>
@@ -2143,7 +2311,7 @@
       <c r="A44" s="2" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>hepatitis C incidence</t>
+          <t>heritability</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
@@ -2155,16 +2323,24 @@
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>HCV incidence</t>
+        </is>
+      </c>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>0</v>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr"/>
@@ -2180,7 +2356,7 @@
       <c r="A45" s="2" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>heritability</t>
+          <t>heroin overdose rate</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
@@ -2192,20 +2368,20 @@
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>HCV incidence</t>
-        </is>
-      </c>
+      <c r="H45" s="2" t="inlineStr"/>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>0</v>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr"/>
@@ -2218,104 +2394,112 @@
       <c r="S45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr"/>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>heroin overdose rate</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr"/>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BCIO:041000</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>An aggregate of human beings</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Human population</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Population in OBI is defined as "A population is a collection of individuals from the same taxonomic class living, counted or sampled at a particular site or in a particular area". See also PICO ontology</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>By the proposed definition we should update the name to 'human population'. Note that the BCIO 'population' ontology only defines population attributes rather than populations themselves. BCI population defined as "That part of a Behaviour change intervention context that consists of the aggregate of people whose behaviour an intervention is intended to change. "</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>BCIO:041000</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>human population</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>An aggregate of human beings</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Population in OBI is defined as "A population is a collection of individuals from the same taxonomic class living, counted or sampled at a particular site or in a particular area". See also PICO ontology</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>By the proposed definition we should update the name to 'human population'. Note that the BCIO 'population' ontology only defines population attributes rather than populations themselves. BCI population defined as "That part of a Behaviour change intervention context that consists of the aggregate of people whose behaviour an intervention is intended to change. "</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="A47" s="2" t="inlineStr"/>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>marginalised group</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="inlineStr"/>
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Human population</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr"/>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="inlineStr"/>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr"/>
+      <c r="S47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>marginalised group</t>
+          <t>moral social world</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
@@ -2332,11 +2516,15 @@
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>0</v>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr"/>
@@ -2352,7 +2540,7 @@
       <c r="A49" s="2" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>moral social world</t>
+          <t>moral world</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -2369,11 +2557,15 @@
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>0</v>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr"/>
@@ -2389,7 +2581,7 @@
       <c r="A50" s="2" t="inlineStr"/>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>moral world</t>
+          <t>morality discourse</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
@@ -2406,11 +2598,15 @@
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>0</v>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr"/>
@@ -2426,7 +2622,7 @@
       <c r="A51" s="2" t="inlineStr"/>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>morality discourse</t>
+          <t>morbidity reduction in a population</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
@@ -2443,11 +2639,15 @@
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>0</v>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr"/>
@@ -2460,15 +2660,31 @@
       <c r="S51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr"/>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000324</t>
+        </is>
+      </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>morbidity reduction in a population</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr"/>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr"/>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>A population attribute that reflects the number of deaths within a population within a time frame.</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>population attribute</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>Specifically dependent continuant</t>
+        </is>
+      </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
           <t>Human population</t>
@@ -2480,11 +2696,15 @@
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2" t="n">
-        <v>0</v>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr"/>
@@ -2497,31 +2717,15 @@
       <c r="S52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000324</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="inlineStr"/>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>mortality</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>A population attribute that reflects the number of deaths within a population within a time frame.</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>population attribute</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>Specifically dependent continuant</t>
-        </is>
-      </c>
+          <t>mortality in a population</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="inlineStr"/>
+      <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr">
         <is>
           <t>Human population</t>
@@ -2534,10 +2738,12 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr"/>
       <c r="M53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr"/>
@@ -2550,100 +2756,106 @@
       <c r="S53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr"/>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>mortality in a population</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr"/>
-      <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr"/>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="n">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>OBCS:0000150</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>mortality ratio</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A data item which is the ratio of observed deaths in the study group to expected deaths in the general population.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Human population</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr"/>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>mortality reduction in a population</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="inlineStr"/>
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>Human population</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr"/>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" s="2" t="inlineStr"/>
-      <c r="P54" s="2" t="inlineStr"/>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>OBCS:0000150</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>mortality ratio</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A data item which is the ratio of observed deaths in the study group to expected deaths in the general population.</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="inlineStr"/>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr"/>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>mortality reduction in a population</t>
+          <t>mortality risk</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
@@ -2663,8 +2875,10 @@
       <c r="M56" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N56" s="2" t="n">
-        <v>0</v>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr"/>
@@ -2680,7 +2894,7 @@
       <c r="A57" s="2" t="inlineStr"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>mortality risk</t>
+          <t>national trend</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
@@ -2700,8 +2914,10 @@
       <c r="M57" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N57" s="2" t="n">
-        <v>0</v>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr"/>
@@ -2717,7 +2933,7 @@
       <c r="A58" s="2" t="inlineStr"/>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>national trend</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr"/>
@@ -2734,11 +2950,15 @@
       <c r="J58" s="2" t="inlineStr"/>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" s="2" t="n">
-        <v>0</v>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="inlineStr"/>
@@ -2754,7 +2974,7 @@
       <c r="A59" s="2" t="inlineStr"/>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>normalisation</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr"/>
@@ -2771,11 +2991,15 @@
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2" t="n">
-        <v>0</v>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="inlineStr"/>
@@ -2791,7 +3015,7 @@
       <c r="A60" s="2" t="inlineStr"/>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>normalisation</t>
+          <t>number of events averted per year in a population</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr"/>
@@ -2808,11 +3032,15 @@
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2" t="n">
-        <v>0</v>
+      <c r="M60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="inlineStr"/>
@@ -2828,7 +3056,7 @@
       <c r="A61" s="2" t="inlineStr"/>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>number of events averted per year in a population</t>
+          <t>number of opioid overdoses per year</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr"/>
@@ -2845,11 +3073,15 @@
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="2" t="n">
-        <v>0</v>
+      <c r="M61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="inlineStr"/>
@@ -2865,7 +3097,7 @@
       <c r="A62" s="2" t="inlineStr"/>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>number of opioid overdoses per year</t>
+          <t>number of patients admitted as an inpatient</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr"/>
@@ -2882,11 +3114,15 @@
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="2" t="n">
-        <v>0</v>
+      <c r="M62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr"/>
@@ -2902,7 +3138,7 @@
       <c r="A63" s="2" t="inlineStr"/>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>number of patients admitted as an inpatient</t>
+          <t>number of patients entering treatment</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
@@ -2919,11 +3155,15 @@
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr"/>
-      <c r="M63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="2" t="n">
-        <v>0</v>
+      <c r="M63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O63" s="2" t="inlineStr"/>
       <c r="P63" s="2" t="inlineStr"/>
@@ -2939,7 +3179,7 @@
       <c r="A64" s="2" t="inlineStr"/>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>number of patients entering treatment</t>
+          <t>opioid overdose epidemic</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr"/>
@@ -2956,11 +3196,15 @@
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="2" t="n">
-        <v>0</v>
+      <c r="M64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O64" s="2" t="inlineStr"/>
       <c r="P64" s="2" t="inlineStr"/>
@@ -2976,7 +3220,7 @@
       <c r="A65" s="2" t="inlineStr"/>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>opioid overdose epidemic</t>
+          <t>opioid overdose mortality</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr"/>
@@ -2993,11 +3237,15 @@
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="2" t="n">
-        <v>0</v>
+      <c r="M65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O65" s="2" t="inlineStr"/>
       <c r="P65" s="2" t="inlineStr"/>
@@ -3013,7 +3261,7 @@
       <c r="A66" s="2" t="inlineStr"/>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>opioid overdose mortality</t>
+          <t>opioid use epidemic</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr"/>
@@ -3030,11 +3278,15 @@
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr"/>
-      <c r="M66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="2" t="n">
-        <v>0</v>
+      <c r="M66" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N66" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O66" s="2" t="inlineStr"/>
       <c r="P66" s="2" t="inlineStr"/>
@@ -3050,7 +3302,7 @@
       <c r="A67" s="2" t="inlineStr"/>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>opioid use epidemic</t>
+          <t>opioid-related morbidity</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr"/>
@@ -3067,11 +3319,15 @@
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr"/>
-      <c r="M67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="2" t="n">
-        <v>0</v>
+      <c r="M67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O67" s="2" t="inlineStr"/>
       <c r="P67" s="2" t="inlineStr"/>
@@ -3087,7 +3343,7 @@
       <c r="A68" s="2" t="inlineStr"/>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>opioid-related morbidity</t>
+          <t>opioid-related mortality</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr"/>
@@ -3104,11 +3360,15 @@
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr"/>
-      <c r="M68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="2" t="n">
-        <v>0</v>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N68" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O68" s="2" t="inlineStr"/>
       <c r="P68" s="2" t="inlineStr"/>
@@ -3124,7 +3384,7 @@
       <c r="A69" s="2" t="inlineStr"/>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>opioid-related mortality</t>
+          <t>overdose probability</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr"/>
@@ -3141,11 +3401,15 @@
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr"/>
-      <c r="M69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" s="2" t="n">
-        <v>0</v>
+      <c r="M69" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N69" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O69" s="2" t="inlineStr"/>
       <c r="P69" s="2" t="inlineStr"/>
@@ -3158,14 +3422,26 @@
       <c r="S69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr"/>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000525</t>
+        </is>
+      </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>overdose probability</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr"/>
-      <c r="D70" s="2" t="inlineStr"/>
+          <t>population attribute</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>A dependent continuant (attribute) that is shared by all members of a population, or an attribute that characterises a population as a whole</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr">
         <is>
@@ -3175,14 +3451,22 @@
       <c r="G70" s="2" t="inlineStr"/>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>This is what the root of the BCIO population ontology is in actual effect</t>
+        </is>
+      </c>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr"/>
-      <c r="M70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" s="2" t="n">
-        <v>0</v>
+      <c r="M70" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N70" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O70" s="2" t="inlineStr"/>
       <c r="P70" s="2" t="inlineStr"/>
@@ -3195,26 +3479,14 @@
       <c r="S70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000525</t>
-        </is>
-      </c>
+      <c r="A71" s="2" t="inlineStr"/>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>population attribute</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>A dependent continuant (attribute) that is shared by all members of a population, or an attribute that characterises a population as a whole</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
+          <t>population drinking trend</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="inlineStr"/>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr">
         <is>
@@ -3224,18 +3496,18 @@
       <c r="G71" s="2" t="inlineStr"/>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>This is what the root of the BCIO population ontology is in actual effect</t>
-        </is>
-      </c>
+      <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr"/>
-      <c r="M71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" s="2" t="n">
-        <v>0</v>
+      <c r="M71" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N71" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O71" s="2" t="inlineStr"/>
       <c r="P71" s="2" t="inlineStr"/>
@@ -3248,14 +3520,26 @@
       <c r="S71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr"/>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000325</t>
+        </is>
+      </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>population drinking trend</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr"/>
-      <c r="D72" s="2" t="inlineStr"/>
+          <t>population health</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>The health of a population</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>population attribute</t>
+        </is>
+      </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr">
         <is>
@@ -3268,11 +3552,15 @@
       <c r="J72" s="2" t="inlineStr"/>
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr"/>
-      <c r="M72" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" s="2" t="n">
-        <v>0</v>
+      <c r="M72" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N72" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O72" s="2" t="inlineStr"/>
       <c r="P72" s="2" t="inlineStr"/>
@@ -3285,26 +3573,14 @@
       <c r="S72" s="2" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000325</t>
-        </is>
-      </c>
+      <c r="A73" s="2" t="inlineStr"/>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>population health</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>The health of a population</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>population attribute</t>
-        </is>
-      </c>
+          <t>population level e-cigarette use</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="inlineStr"/>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr">
         <is>
@@ -3318,10 +3594,12 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr"/>
       <c r="M73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N73" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O73" s="2" t="inlineStr"/>
       <c r="P73" s="2" t="inlineStr"/>
@@ -3337,7 +3615,7 @@
       <c r="A74" s="2" t="inlineStr"/>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>population level e-cigarette use</t>
+          <t>population-level gateway effect</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr"/>
@@ -3357,8 +3635,10 @@
       <c r="M74" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N74" s="2" t="n">
-        <v>0</v>
+      <c r="N74" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O74" s="2" t="inlineStr"/>
       <c r="P74" s="2" t="inlineStr"/>
@@ -3374,10 +3654,14 @@
       <c r="A75" s="2" t="inlineStr"/>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>population-level gateway effect</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr"/>
+          <t>premature mortality</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>The number of premature deaths that occur in a population in a given timeframe.</t>
+        </is>
+      </c>
       <c r="D75" s="2" t="inlineStr"/>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr">
@@ -3391,11 +3675,15 @@
       <c r="J75" s="2" t="inlineStr"/>
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr"/>
-      <c r="M75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" s="2" t="n">
-        <v>0</v>
+      <c r="M75" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N75" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O75" s="2" t="inlineStr"/>
       <c r="P75" s="2" t="inlineStr"/>
@@ -3411,14 +3699,10 @@
       <c r="A76" s="2" t="inlineStr"/>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>premature mortality</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>The number of premature deaths that occur in a population in a given timeframe.</t>
-        </is>
-      </c>
+          <t>prevalence</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr"/>
       <c r="D76" s="2" t="inlineStr"/>
       <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr">
@@ -3432,14 +3716,22 @@
       <c r="J76" s="2" t="inlineStr"/>
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr"/>
-      <c r="M76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" s="2" t="n">
-        <v>0</v>
+      <c r="M76" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N76" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O76" s="2" t="inlineStr"/>
-      <c r="P76" s="2" t="inlineStr"/>
+      <c r="P76" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q76" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3469,18 +3761,18 @@
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr"/>
-      <c r="M77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" s="2" t="n">
-        <v>0</v>
+      <c r="M77" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N77" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O77" s="2" t="inlineStr"/>
-      <c r="P77" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P77" s="2" t="inlineStr"/>
       <c r="Q77" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3493,7 +3785,7 @@
       <c r="A78" s="2" t="inlineStr"/>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>prevalence</t>
+          <t>public health benefit</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr"/>
@@ -3510,11 +3802,15 @@
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr"/>
-      <c r="M78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" s="2" t="n">
-        <v>0</v>
+      <c r="M78" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O78" s="2" t="inlineStr"/>
       <c r="P78" s="2" t="inlineStr"/>
@@ -3530,7 +3826,7 @@
       <c r="A79" s="2" t="inlineStr"/>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>public health benefit</t>
+          <t>public health community</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr"/>
@@ -3547,11 +3843,15 @@
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr"/>
-      <c r="M79" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" s="2" t="n">
-        <v>0</v>
+      <c r="M79" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N79" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O79" s="2" t="inlineStr"/>
       <c r="P79" s="2" t="inlineStr"/>
@@ -3567,7 +3867,7 @@
       <c r="A80" s="2" t="inlineStr"/>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>public health community</t>
+          <t>public health emergency</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr"/>
@@ -3585,10 +3885,12 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr"/>
       <c r="M80" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N80" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O80" s="2" t="inlineStr"/>
       <c r="P80" s="2" t="inlineStr"/>
@@ -3604,7 +3906,7 @@
       <c r="A81" s="2" t="inlineStr"/>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>public health emergency</t>
+          <t>public opinion</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr"/>
@@ -3621,11 +3923,15 @@
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr"/>
-      <c r="M81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" s="2" t="n">
-        <v>0</v>
+      <c r="M81" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N81" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O81" s="2" t="inlineStr"/>
       <c r="P81" s="2" t="inlineStr"/>
@@ -3641,7 +3947,7 @@
       <c r="A82" s="2" t="inlineStr"/>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>public opinion</t>
+          <t>public stance</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr"/>
@@ -3658,11 +3964,15 @@
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr"/>
-      <c r="M82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" s="2" t="n">
-        <v>0</v>
+      <c r="M82" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N82" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O82" s="2" t="inlineStr"/>
       <c r="P82" s="2" t="inlineStr"/>
@@ -3675,31 +3985,63 @@
       <c r="S82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr"/>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000326</t>
+        </is>
+      </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>public stance</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr"/>
-      <c r="D83" s="2" t="inlineStr"/>
-      <c r="E83" s="2" t="inlineStr"/>
+          <t>quality-adjusted life year</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is the estimated number of years that a person can expect to live, adjusted downwards according to how far the assessed quality of life of that person is less than what is judged to be optimal.</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
           <t>Human population</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr"/>
-      <c r="H83" s="2" t="inlineStr"/>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>QALY</t>
+        </is>
+      </c>
       <c r="I83" s="2" t="inlineStr"/>
-      <c r="J83" s="2" t="inlineStr"/>
-      <c r="K83" s="2" t="inlineStr"/>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>No appropriate ontological definition found. Definition based on https://en.wikipedia.org/wiki/Quality_of_life</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>The issue of who does the judging would need to be specified and the basis for the judgement.</t>
+        </is>
+      </c>
       <c r="L83" s="2" t="inlineStr"/>
-      <c r="M83" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" s="2" t="n">
-        <v>0</v>
+      <c r="M83" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N83" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O83" s="2" t="inlineStr"/>
       <c r="P83" s="2" t="inlineStr"/>
@@ -3712,59 +4054,35 @@
       <c r="S83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000326</t>
-        </is>
-      </c>
+      <c r="A84" s="2" t="inlineStr"/>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>quality-adjusted life year</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is the estimated number of years that a person can expect to live, adjusted downwards according to how far the assessed quality of life of that person is less than what is judged to be optimal.</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>risk of abuse</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr"/>
+      <c r="D84" s="2" t="inlineStr"/>
+      <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr">
         <is>
           <t>Human population</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr"/>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>QALY</t>
-        </is>
-      </c>
+      <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr"/>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>No appropriate ontological definition found. Definition based on https://en.wikipedia.org/wiki/Quality_of_life</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="inlineStr">
-        <is>
-          <t>The issue of who does the judging would need to be specified and the basis for the judgement.</t>
-        </is>
-      </c>
+      <c r="J84" s="2" t="inlineStr"/>
+      <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr"/>
-      <c r="M84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" s="2" t="n">
-        <v>0</v>
+      <c r="M84" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N84" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O84" s="2" t="inlineStr"/>
       <c r="P84" s="2" t="inlineStr"/>
@@ -3780,7 +4098,7 @@
       <c r="A85" s="2" t="inlineStr"/>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>risk of abuse</t>
+          <t>risk of diversion</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr"/>
@@ -3797,11 +4115,15 @@
       <c r="J85" s="2" t="inlineStr"/>
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr"/>
-      <c r="M85" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" s="2" t="n">
-        <v>0</v>
+      <c r="M85" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N85" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O85" s="2" t="inlineStr"/>
       <c r="P85" s="2" t="inlineStr"/>
@@ -3817,7 +4139,7 @@
       <c r="A86" s="2" t="inlineStr"/>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>risk of diversion</t>
+          <t>risk reduction</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr"/>
@@ -3835,10 +4157,12 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr"/>
       <c r="M86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N86" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O86" s="2" t="inlineStr"/>
       <c r="P86" s="2" t="inlineStr"/>
@@ -3854,7 +4178,7 @@
       <c r="A87" s="2" t="inlineStr"/>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>risk reduction</t>
+          <t>risk threshold</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr"/>
@@ -3874,8 +4198,10 @@
       <c r="M87" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N87" s="2" t="n">
-        <v>0</v>
+      <c r="N87" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O87" s="2" t="inlineStr"/>
       <c r="P87" s="2" t="inlineStr"/>
@@ -3891,7 +4217,7 @@
       <c r="A88" s="2" t="inlineStr"/>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>risk threshold</t>
+          <t>secular trend</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr"/>
@@ -3908,11 +4234,15 @@
       <c r="J88" s="2" t="inlineStr"/>
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr"/>
-      <c r="M88" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" s="2" t="n">
-        <v>0</v>
+      <c r="M88" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N88" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O88" s="2" t="inlineStr"/>
       <c r="P88" s="2" t="inlineStr"/>
@@ -3928,7 +4258,7 @@
       <c r="A89" s="2" t="inlineStr"/>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>secular trend</t>
+          <t>sexual minority subgroup</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr"/>
@@ -3945,11 +4275,15 @@
       <c r="J89" s="2" t="inlineStr"/>
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr"/>
-      <c r="M89" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" s="2" t="n">
-        <v>0</v>
+      <c r="M89" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N89" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O89" s="2" t="inlineStr"/>
       <c r="P89" s="2" t="inlineStr"/>
@@ -3965,7 +4299,7 @@
       <c r="A90" s="2" t="inlineStr"/>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>sexual minority subgroup</t>
+          <t>smoking-related mortality</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr"/>
@@ -3983,10 +4317,12 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr"/>
       <c r="M90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N90" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O90" s="2" t="inlineStr"/>
       <c r="P90" s="2" t="inlineStr"/>
@@ -4002,10 +4338,14 @@
       <c r="A91" s="2" t="inlineStr"/>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>smoking-related mortality</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr"/>
+          <t>social acceptability</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>The degree to which something is believed to be acceptable to members of a population.</t>
+        </is>
+      </c>
       <c r="D91" s="2" t="inlineStr"/>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr">
@@ -4022,8 +4362,10 @@
       <c r="M91" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N91" s="2" t="n">
-        <v>0</v>
+      <c r="N91" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O91" s="2" t="inlineStr"/>
       <c r="P91" s="2" t="inlineStr"/>
@@ -4039,12 +4381,12 @@
       <c r="A92" s="2" t="inlineStr"/>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>social acceptability</t>
+          <t>social connectedness</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>The degree to which something is believed to be acceptable to members of a population.</t>
+          <t>An attribute of a population involving the degree to which people in that population communicate with each other.</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
@@ -4060,11 +4402,15 @@
       <c r="J92" s="2" t="inlineStr"/>
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr"/>
-      <c r="M92" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" s="2" t="n">
-        <v>0</v>
+      <c r="M92" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N92" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O92" s="2" t="inlineStr"/>
       <c r="P92" s="2" t="inlineStr"/>
@@ -4080,14 +4426,10 @@
       <c r="A93" s="2" t="inlineStr"/>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>social connectedness</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a population involving the degree to which people in that population communicate with each other.</t>
-        </is>
-      </c>
+          <t>social context</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr"/>
       <c r="D93" s="2" t="inlineStr"/>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr">
@@ -4101,11 +4443,15 @@
       <c r="J93" s="2" t="inlineStr"/>
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr"/>
-      <c r="M93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" s="2" t="n">
-        <v>0</v>
+      <c r="M93" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N93" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O93" s="2" t="inlineStr"/>
       <c r="P93" s="2" t="inlineStr"/>
@@ -4121,7 +4467,7 @@
       <c r="A94" s="2" t="inlineStr"/>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>social context</t>
+          <t>social norm</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr"/>
@@ -4138,11 +4484,15 @@
       <c r="J94" s="2" t="inlineStr"/>
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr"/>
-      <c r="M94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" s="2" t="n">
-        <v>0</v>
+      <c r="M94" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N94" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O94" s="2" t="inlineStr"/>
       <c r="P94" s="2" t="inlineStr"/>
@@ -4158,7 +4508,7 @@
       <c r="A95" s="2" t="inlineStr"/>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>social norm</t>
+          <t>social responsibility</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr"/>
@@ -4175,11 +4525,15 @@
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr"/>
-      <c r="M95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" s="2" t="n">
-        <v>0</v>
+      <c r="M95" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N95" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O95" s="2" t="inlineStr"/>
       <c r="P95" s="2" t="inlineStr"/>
@@ -4195,7 +4549,7 @@
       <c r="A96" s="2" t="inlineStr"/>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>social responsibility</t>
+          <t>societal discourse</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr"/>
@@ -4212,11 +4566,15 @@
       <c r="J96" s="2" t="inlineStr"/>
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr"/>
-      <c r="M96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" s="2" t="n">
-        <v>0</v>
+      <c r="M96" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N96" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O96" s="2" t="inlineStr"/>
       <c r="P96" s="2" t="inlineStr"/>
@@ -4232,7 +4590,7 @@
       <c r="A97" s="2" t="inlineStr"/>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>societal discourse</t>
+          <t>societal-level</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr"/>
@@ -4249,11 +4607,15 @@
       <c r="J97" s="2" t="inlineStr"/>
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr"/>
-      <c r="M97" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" s="2" t="n">
-        <v>0</v>
+      <c r="M97" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N97" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O97" s="2" t="inlineStr"/>
       <c r="P97" s="2" t="inlineStr"/>
@@ -4266,15 +4628,31 @@
       <c r="S97" s="2" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr"/>
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000327</t>
+        </is>
+      </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>societal-level</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr"/>
-      <c r="D98" s="2" t="inlineStr"/>
-      <c r="E98" s="2" t="inlineStr"/>
+          <t>supply-induced treatment demand</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>Treatment demand that is influenced by the availability of the treatment to to population.</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>treatment demand</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
           <t>Human population</t>
@@ -4286,11 +4664,15 @@
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr"/>
-      <c r="M98" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" s="2" t="n">
-        <v>0</v>
+      <c r="M98" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N98" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O98" s="2" t="inlineStr"/>
       <c r="P98" s="2" t="inlineStr"/>
@@ -4305,22 +4687,22 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000327</t>
+          <t>ADDICTO:0000328</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>supply-induced treatment demand</t>
+          <t>treatment demand</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Treatment demand that is influenced by the availability of the treatment to to population.</t>
+          <t>A quality of a population that involves the number of people in the population who seek a treatment.</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>treatment demand</t>
+          <t>population attribute</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
@@ -4339,11 +4721,15 @@
       <c r="J99" s="2" t="inlineStr"/>
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr"/>
-      <c r="M99" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" s="2" t="n">
-        <v>0</v>
+      <c r="M99" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N99" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O99" s="2" t="inlineStr"/>
       <c r="P99" s="2" t="inlineStr"/>
@@ -4356,31 +4742,15 @@
       <c r="S99" s="2" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000328</t>
-        </is>
-      </c>
+      <c r="A100" s="2" t="inlineStr"/>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>treatment demand</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>A quality of a population that involves the number of people in the population who seek a treatment.</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t>population attribute</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>Quality</t>
-        </is>
-      </c>
+          <t>univariate heritability</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr"/>
+      <c r="D100" s="2" t="inlineStr"/>
+      <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr">
         <is>
           <t>Human population</t>
@@ -4392,11 +4762,15 @@
       <c r="J100" s="2" t="inlineStr"/>
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr"/>
-      <c r="M100" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" s="2" t="n">
-        <v>0</v>
+      <c r="M100" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N100" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O100" s="2" t="inlineStr"/>
       <c r="P100" s="2" t="inlineStr"/>
@@ -4412,7 +4786,7 @@
       <c r="A101" s="2" t="inlineStr"/>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>univariate heritability</t>
+          <t>unwritten rule</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr"/>
@@ -4429,11 +4803,15 @@
       <c r="J101" s="2" t="inlineStr"/>
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr"/>
-      <c r="M101" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" s="2" t="n">
-        <v>0</v>
+      <c r="M101" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N101" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O101" s="2" t="inlineStr"/>
       <c r="P101" s="2" t="inlineStr"/>
@@ -4449,7 +4827,7 @@
       <c r="A102" s="2" t="inlineStr"/>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>unwritten rule</t>
+          <t>vulnerable group</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr"/>
@@ -4466,11 +4844,15 @@
       <c r="J102" s="2" t="inlineStr"/>
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr"/>
-      <c r="M102" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" s="2" t="n">
-        <v>0</v>
+      <c r="M102" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N102" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O102" s="2" t="inlineStr"/>
       <c r="P102" s="2" t="inlineStr"/>
@@ -4486,7 +4868,7 @@
       <c r="A103" s="2" t="inlineStr"/>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>vulnerable group</t>
+          <t>women's role</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr"/>
@@ -4503,11 +4885,15 @@
       <c r="J103" s="2" t="inlineStr"/>
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr"/>
-      <c r="M103" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" s="2" t="n">
-        <v>0</v>
+      <c r="M103" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N103" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O103" s="2" t="inlineStr"/>
       <c r="P103" s="2" t="inlineStr"/>
@@ -4518,43 +4904,6 @@
       </c>
       <c r="R103" s="2" t="inlineStr"/>
       <c r="S103" s="2" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="inlineStr"/>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>women's role</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="inlineStr"/>
-      <c r="D104" s="2" t="inlineStr"/>
-      <c r="E104" s="2" t="inlineStr"/>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="inlineStr"/>
-      <c r="H104" s="2" t="inlineStr"/>
-      <c r="I104" s="2" t="inlineStr"/>
-      <c r="J104" s="2" t="inlineStr"/>
-      <c r="K104" s="2" t="inlineStr"/>
-      <c r="L104" s="2" t="inlineStr"/>
-      <c r="M104" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" s="2" t="inlineStr"/>
-      <c r="P104" s="2" t="inlineStr"/>
-      <c r="Q104" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R104" s="2" t="inlineStr"/>
-      <c r="S104" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Human_population_Defs.xlsx
+++ b/inputs/AddictO_Human_population_Defs.xlsx
@@ -1713,8 +1713,10 @@
       <c r="J29" s="3" t="inlineStr"/>
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="inlineStr"/>
-      <c r="M29" s="3" t="b">
-        <v>1</v>
+      <c r="M29" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="N29" s="3" t="inlineStr">
         <is>
@@ -2784,67 +2786,49 @@
       <c r="S53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>OBCS:0000150</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>mortality ratio</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A data item which is the ratio of observed deaths in the study group to expected deaths in the general population.</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="A54" s="2" t="inlineStr"/>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>mortality reduction in a population</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Human population</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr"/>
+      <c r="P54" s="2" t="inlineStr"/>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr"/>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>mortality reduction in a population</t>
+          <t>mortality risk</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
@@ -2883,7 +2867,7 @@
       <c r="A56" s="2" t="inlineStr"/>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>mortality risk</t>
+          <t>national trend</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
@@ -2922,7 +2906,7 @@
       <c r="A57" s="2" t="inlineStr"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>national trend</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
@@ -2939,8 +2923,10 @@
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="n">
-        <v>1</v>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
@@ -2961,7 +2947,7 @@
       <c r="A58" s="2" t="inlineStr"/>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>normalisation</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr"/>
@@ -3002,7 +2988,7 @@
       <c r="A59" s="2" t="inlineStr"/>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>normalisation</t>
+          <t>number of events averted per year in a population</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr"/>
@@ -3043,7 +3029,7 @@
       <c r="A60" s="2" t="inlineStr"/>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>number of events averted per year in a population</t>
+          <t>number of opioid overdoses per year</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr"/>
@@ -3084,7 +3070,7 @@
       <c r="A61" s="2" t="inlineStr"/>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>number of opioid overdoses per year</t>
+          <t>number of patients admitted as an inpatient</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr"/>
@@ -3125,7 +3111,7 @@
       <c r="A62" s="2" t="inlineStr"/>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>number of patients admitted as an inpatient</t>
+          <t>number of patients entering treatment</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr"/>
@@ -3166,7 +3152,7 @@
       <c r="A63" s="2" t="inlineStr"/>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>number of patients entering treatment</t>
+          <t>opioid overdose epidemic</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
@@ -3207,7 +3193,7 @@
       <c r="A64" s="2" t="inlineStr"/>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>opioid overdose epidemic</t>
+          <t>opioid overdose mortality</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr"/>
@@ -3248,7 +3234,7 @@
       <c r="A65" s="2" t="inlineStr"/>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>opioid overdose mortality</t>
+          <t>opioid use epidemic</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr"/>
@@ -3289,7 +3275,7 @@
       <c r="A66" s="2" t="inlineStr"/>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>opioid use epidemic</t>
+          <t>opioid-related morbidity</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr"/>
@@ -3330,7 +3316,7 @@
       <c r="A67" s="2" t="inlineStr"/>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>opioid-related morbidity</t>
+          <t>opioid-related mortality</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr"/>
@@ -3371,7 +3357,7 @@
       <c r="A68" s="2" t="inlineStr"/>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>opioid-related mortality</t>
+          <t>overdose probability</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr"/>
@@ -3412,7 +3398,7 @@
       <c r="A69" s="2" t="inlineStr"/>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>overdose probability</t>
+          <t>population drinking trend</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr"/>
@@ -3450,104 +3436,102 @@
       <c r="S69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr"/>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>population drinking trend</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr"/>
-      <c r="D70" s="2" t="inlineStr"/>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
-      <c r="L70" s="2" t="inlineStr"/>
-      <c r="M70" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N70" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr"/>
-      <c r="Q70" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R70" s="2" t="inlineStr"/>
-      <c r="S70" s="2" t="inlineStr"/>
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000325</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>population health</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>The health of a population</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>population attribute</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr"/>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>Human population</t>
+        </is>
+      </c>
+      <c r="G70" s="3" t="inlineStr"/>
+      <c r="H70" s="3" t="inlineStr"/>
+      <c r="I70" s="3" t="inlineStr"/>
+      <c r="J70" s="3" t="inlineStr"/>
+      <c r="K70" s="3" t="inlineStr"/>
+      <c r="L70" s="3" t="inlineStr"/>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N70" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O70" s="3" t="inlineStr"/>
+      <c r="P70" s="3" t="inlineStr"/>
+      <c r="Q70" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R70" s="3" t="inlineStr"/>
+      <c r="S70" s="3" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000325</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="inlineStr">
-        <is>
-          <t>population health</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>The health of a population</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>population attribute</t>
-        </is>
-      </c>
-      <c r="E71" s="3" t="inlineStr"/>
-      <c r="F71" s="3" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G71" s="3" t="inlineStr"/>
-      <c r="H71" s="3" t="inlineStr"/>
-      <c r="I71" s="3" t="inlineStr"/>
-      <c r="J71" s="3" t="inlineStr"/>
-      <c r="K71" s="3" t="inlineStr"/>
-      <c r="L71" s="3" t="inlineStr"/>
-      <c r="M71" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N71" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O71" s="3" t="inlineStr"/>
-      <c r="P71" s="3" t="inlineStr"/>
-      <c r="Q71" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R71" s="3" t="inlineStr"/>
-      <c r="S71" s="3" t="inlineStr"/>
+      <c r="A71" s="2" t="inlineStr"/>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>population level e-cigarette use</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="inlineStr"/>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>Human population</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr"/>
+      <c r="M71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O71" s="2" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr"/>
+      <c r="Q71" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R71" s="2" t="inlineStr"/>
+      <c r="S71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr"/>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>population level e-cigarette use</t>
+          <t>population-level gateway effect</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr"/>
@@ -3586,10 +3570,14 @@
       <c r="A73" s="2" t="inlineStr"/>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>population-level gateway effect</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr"/>
+          <t>premature mortality</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>The number of premature deaths that occur in a population in a given timeframe.</t>
+        </is>
+      </c>
       <c r="D73" s="2" t="inlineStr"/>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr">
@@ -3603,8 +3591,10 @@
       <c r="J73" s="2" t="inlineStr"/>
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr"/>
-      <c r="M73" s="2" t="n">
-        <v>1</v>
+      <c r="M73" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
         <is>
@@ -3625,14 +3615,10 @@
       <c r="A74" s="2" t="inlineStr"/>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>premature mortality</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>The number of premature deaths that occur in a population in a given timeframe.</t>
-        </is>
-      </c>
+          <t>prevalence</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr"/>
       <c r="D74" s="2" t="inlineStr"/>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr">
@@ -3657,7 +3643,11 @@
         </is>
       </c>
       <c r="O74" s="2" t="inlineStr"/>
-      <c r="P74" s="2" t="inlineStr"/>
+      <c r="P74" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q74" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
@@ -3698,11 +3688,7 @@
         </is>
       </c>
       <c r="O75" s="2" t="inlineStr"/>
-      <c r="P75" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P75" s="2" t="inlineStr"/>
       <c r="Q75" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
@@ -3715,7 +3701,7 @@
       <c r="A76" s="2" t="inlineStr"/>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>prevalence</t>
+          <t>public health benefit</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr"/>
@@ -3756,7 +3742,7 @@
       <c r="A77" s="2" t="inlineStr"/>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>public health benefit</t>
+          <t>public health community</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr"/>
@@ -3797,7 +3783,7 @@
       <c r="A78" s="2" t="inlineStr"/>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>public health community</t>
+          <t>public health emergency</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr"/>
@@ -3814,10 +3800,8 @@
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr"/>
-      <c r="M78" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M78" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
@@ -3838,7 +3822,7 @@
       <c r="A79" s="2" t="inlineStr"/>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>public health emergency</t>
+          <t>public opinion</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr"/>
@@ -3855,8 +3839,10 @@
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr"/>
-      <c r="M79" s="2" t="n">
-        <v>1</v>
+      <c r="M79" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
@@ -3877,7 +3863,7 @@
       <c r="A80" s="2" t="inlineStr"/>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>public opinion</t>
+          <t>public stance</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr"/>
@@ -3915,120 +3901,120 @@
       <c r="S80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr"/>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>public stance</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr"/>
-      <c r="D81" s="2" t="inlineStr"/>
-      <c r="E81" s="2" t="inlineStr"/>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="inlineStr"/>
-      <c r="H81" s="2" t="inlineStr"/>
-      <c r="I81" s="2" t="inlineStr"/>
-      <c r="J81" s="2" t="inlineStr"/>
-      <c r="K81" s="2" t="inlineStr"/>
-      <c r="L81" s="2" t="inlineStr"/>
-      <c r="M81" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N81" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O81" s="2" t="inlineStr"/>
-      <c r="P81" s="2" t="inlineStr"/>
-      <c r="Q81" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R81" s="2" t="inlineStr"/>
-      <c r="S81" s="2" t="inlineStr"/>
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000326</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>quality-adjusted life year</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is the estimated number of years that a person can expect to live, adjusted downwards according to how far the assessed quality of life of that person is less than what is judged to be optimal.</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>Human population</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="inlineStr"/>
+      <c r="H81" s="3" t="inlineStr">
+        <is>
+          <t>QALY</t>
+        </is>
+      </c>
+      <c r="I81" s="3" t="inlineStr"/>
+      <c r="J81" s="3" t="inlineStr">
+        <is>
+          <t>No appropriate ontological definition found. Definition based on https://en.wikipedia.org/wiki/Quality_of_life</t>
+        </is>
+      </c>
+      <c r="K81" s="3" t="inlineStr">
+        <is>
+          <t>The issue of who does the judging would need to be specified and the basis for the judgement.</t>
+        </is>
+      </c>
+      <c r="L81" s="3" t="inlineStr"/>
+      <c r="M81" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N81" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O81" s="3" t="inlineStr"/>
+      <c r="P81" s="3" t="inlineStr"/>
+      <c r="Q81" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R81" s="3" t="inlineStr"/>
+      <c r="S81" s="3" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000326</t>
-        </is>
-      </c>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t>quality-adjusted life year</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>A data item that is the estimated number of years that a person can expect to live, adjusted downwards according to how far the assessed quality of life of that person is less than what is judged to be optimal.</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E82" s="3" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="F82" s="3" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G82" s="3" t="inlineStr"/>
-      <c r="H82" s="3" t="inlineStr">
-        <is>
-          <t>QALY</t>
-        </is>
-      </c>
-      <c r="I82" s="3" t="inlineStr"/>
-      <c r="J82" s="3" t="inlineStr">
-        <is>
-          <t>No appropriate ontological definition found. Definition based on https://en.wikipedia.org/wiki/Quality_of_life</t>
-        </is>
-      </c>
-      <c r="K82" s="3" t="inlineStr">
-        <is>
-          <t>The issue of who does the judging would need to be specified and the basis for the judgement.</t>
-        </is>
-      </c>
-      <c r="L82" s="3" t="inlineStr"/>
-      <c r="M82" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N82" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O82" s="3" t="inlineStr"/>
-      <c r="P82" s="3" t="inlineStr"/>
-      <c r="Q82" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R82" s="3" t="inlineStr"/>
-      <c r="S82" s="3" t="inlineStr"/>
+      <c r="A82" s="2" t="inlineStr"/>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>risk of abuse</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="inlineStr"/>
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Human population</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr"/>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
+      <c r="J82" s="2" t="inlineStr"/>
+      <c r="K82" s="2" t="inlineStr"/>
+      <c r="L82" s="2" t="inlineStr"/>
+      <c r="M82" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N82" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O82" s="2" t="inlineStr"/>
+      <c r="P82" s="2" t="inlineStr"/>
+      <c r="Q82" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R82" s="2" t="inlineStr"/>
+      <c r="S82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr"/>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>risk of abuse</t>
+          <t>risk of diversion</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr"/>
@@ -4069,7 +4055,7 @@
       <c r="A84" s="2" t="inlineStr"/>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>risk of diversion</t>
+          <t>risk reduction</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr"/>
@@ -4086,10 +4072,8 @@
       <c r="J84" s="2" t="inlineStr"/>
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr"/>
-      <c r="M84" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M84" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
@@ -4110,7 +4094,7 @@
       <c r="A85" s="2" t="inlineStr"/>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>risk reduction</t>
+          <t>risk threshold</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr"/>
@@ -4149,7 +4133,7 @@
       <c r="A86" s="2" t="inlineStr"/>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>risk threshold</t>
+          <t>secular trend</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr"/>
@@ -4166,8 +4150,10 @@
       <c r="J86" s="2" t="inlineStr"/>
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr"/>
-      <c r="M86" s="2" t="n">
-        <v>1</v>
+      <c r="M86" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
         <is>
@@ -4188,7 +4174,7 @@
       <c r="A87" s="2" t="inlineStr"/>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>secular trend</t>
+          <t>sexual minority subgroup</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr"/>
@@ -4229,7 +4215,7 @@
       <c r="A88" s="2" t="inlineStr"/>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>sexual minority subgroup</t>
+          <t>smoking-related mortality</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr"/>
@@ -4246,10 +4232,8 @@
       <c r="J88" s="2" t="inlineStr"/>
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr"/>
-      <c r="M88" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M88" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
@@ -4270,10 +4254,14 @@
       <c r="A89" s="2" t="inlineStr"/>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>smoking-related mortality</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr"/>
+          <t>social acceptability</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>The degree to which something is believed to be acceptable to members of a population.</t>
+        </is>
+      </c>
       <c r="D89" s="2" t="inlineStr"/>
       <c r="E89" s="2" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr">
@@ -4309,12 +4297,12 @@
       <c r="A90" s="2" t="inlineStr"/>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>social acceptability</t>
+          <t>social connectedness</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>The degree to which something is believed to be acceptable to members of a population.</t>
+          <t>An attribute of a population involving the degree to which people in that population communicate with each other.</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
@@ -4330,8 +4318,10 @@
       <c r="J90" s="2" t="inlineStr"/>
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr"/>
-      <c r="M90" s="2" t="n">
-        <v>1</v>
+      <c r="M90" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
@@ -4352,14 +4342,10 @@
       <c r="A91" s="2" t="inlineStr"/>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>social connectedness</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a population involving the degree to which people in that population communicate with each other.</t>
-        </is>
-      </c>
+          <t>social context</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr"/>
       <c r="D91" s="2" t="inlineStr"/>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr">
@@ -4397,7 +4383,7 @@
       <c r="A92" s="2" t="inlineStr"/>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>social context</t>
+          <t>social norm</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr"/>
@@ -4438,7 +4424,7 @@
       <c r="A93" s="2" t="inlineStr"/>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>social norm</t>
+          <t>social responsibility</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr"/>
@@ -4479,7 +4465,7 @@
       <c r="A94" s="2" t="inlineStr"/>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>social responsibility</t>
+          <t>societal discourse</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr"/>
@@ -4520,7 +4506,7 @@
       <c r="A95" s="2" t="inlineStr"/>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>societal discourse</t>
+          <t>societal-level</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr"/>
@@ -4558,45 +4544,65 @@
       <c r="S95" s="2" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr"/>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>societal-level</t>
-        </is>
-      </c>
-      <c r="C96" s="2" t="inlineStr"/>
-      <c r="D96" s="2" t="inlineStr"/>
-      <c r="E96" s="2" t="inlineStr"/>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>Human population</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="inlineStr"/>
-      <c r="H96" s="2" t="inlineStr"/>
-      <c r="I96" s="2" t="inlineStr"/>
-      <c r="J96" s="2" t="inlineStr"/>
-      <c r="K96" s="2" t="inlineStr"/>
-      <c r="L96" s="2" t="inlineStr"/>
-      <c r="M96" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N96" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O96" s="2" t="inlineStr"/>
-      <c r="P96" s="2" t="inlineStr"/>
-      <c r="Q96" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R96" s="2" t="inlineStr"/>
-      <c r="S96" s="2" t="inlineStr"/>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>OBCS:0000150</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>standardized mortality ratio</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A data item which is the ratio of observed deaths in the study group to expected deaths in the general population.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Human population</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">

--- a/inputs/AddictO_Human_population_Defs.xlsx
+++ b/inputs/AddictO_Human_population_Defs.xlsx
@@ -1694,7 +1694,7 @@
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>population attribute</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">

--- a/inputs/AddictO_Human_population_Defs.xlsx
+++ b/inputs/AddictO_Human_population_Defs.xlsx
@@ -1689,7 +1689,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>A population attribute that consists of shared patterns of beliefs, evaluations, prescriptions and proscriptions that are maintained and propagated through social learning processes.</t>
+          <t>A population attribute that consists of shared patterns of beliefs, evaluations, and rules that are maintained and propagated through social learning processes.</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">

--- a/inputs/AddictO_Human_population_Defs.xlsx
+++ b/inputs/AddictO_Human_population_Defs.xlsx
@@ -1689,7 +1689,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>A population attribute that consists of shared patterns of beliefs, evaluations, and rules that are maintained and propagated through social learning processes.</t>
+          <t>A population attribute that consists of shared patterns of beliefs, evaluations, and rules that are maintained and spread among members of the population through social learning processes.</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -1711,7 +1711,11 @@
       <c r="H29" s="3" t="inlineStr"/>
       <c r="I29" s="3" t="inlineStr"/>
       <c r="J29" s="3" t="inlineStr"/>
-      <c r="K29" s="3" t="inlineStr"/>
+      <c r="K29" s="3" t="inlineStr">
+        <is>
+          <t>Population refers to any collection of two or more people, whether in organised social groups such as teams or families or not.</t>
+        </is>
+      </c>
       <c r="L29" s="3" t="inlineStr"/>
       <c r="M29" s="3" t="inlineStr">
         <is>

--- a/inputs/AddictO_Human_population_Defs.xlsx
+++ b/inputs/AddictO_Human_population_Defs.xlsx
@@ -1689,7 +1689,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>A population attribute that consists of shared patterns of beliefs, evaluations, and rules that are maintained and spread among members of the population through social learning processes.</t>
+          <t>A population attribute that consists of shared patterns of beliefs, evaluations, feelings, rules and behaviours that are maintained and spread among members of the population through social learning processes.</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
